--- a/biology/Médecine/Ahamad_Abdullahi_Itibar/Ahamad_Abdullahi_Itibar.xlsx
+++ b/biology/Médecine/Ahamad_Abdullahi_Itibar/Ahamad_Abdullahi_Itibar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ahamad Abdullahi Itibar, plus couramment appelé Docteur Itibar, né à Majunga, à Madagascar, le 23 juin 1956, et décédé le 2 février 2022 à Moroni (Comores), est un médecin comorien spécialiste des maladies tropicales. 
 Lauréat du prix de la meilleure thèse en médecine de l’université Cheikh-Anta-Diop de Dakar pour la promotion doctorale de 1987.
@@ -514,19 +526,94 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Ahamad Abdullahi Itibar est le troisième fils d’Abdullahi Itibar, Chef de la brigade criminelle à Majunga et chef inspecteur de la police, et de Sofy Montagnac, franco-malgache, fille d'un ingénieur agronome français Pierre René Gérard Montagnac. 
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahamad Abdullahi Itibar est le troisième fils d’Abdullahi Itibar, Chef de la brigade criminelle à Majunga et chef inspecteur de la police, et de Sofy Montagnac, franco-malgache, fille d'un ingénieur agronome français Pierre René Gérard Montagnac. 
 Né le 23 juin 1956 à Majunga, à Madagascar, d’un père comorien et d’une mère franco-malgache, Ahamad Abdullahi Itibar a très tôt éprouvé le besoin de venir en aide aux populations les plus vulnérables. Ayant passé plusieurs mois de vacances sur l’île de Grande-Comore auparavant. Il a eu son baccalauréat C en juin 1976 avec mention très bien au Lycée Philbert Tsiranana à MAHAJANGA. Il pousse son père et le reste de sa fratrie à quitter Madagascar après le Rutaka (massacre de comoriens à Majunga en décembre 1976) ; ils s'installent à Iconi, la ville d’origine de son père, aux Comores.
-Arrivé aux Comores, il obtient une bourse d'études de l'OMS pour la faculté de médecine de l’université Cheikh-Anta-Diop de Dakar qu’il achèvera avec sa thèse sur l’état colpocytologique oncologique des prostituées négro-africaines exerçant officiellement au Sénégal et qui lui vaudra un prix de thèse en 1987[1].
+Arrivé aux Comores, il obtient une bourse d'études de l'OMS pour la faculté de médecine de l’université Cheikh-Anta-Diop de Dakar qu’il achèvera avec sa thèse sur l’état colpocytologique oncologique des prostituées négro-africaines exerçant officiellement au Sénégal et qui lui vaudra un prix de thèse en 1987.
 Il poursuit ses études postdoctorales à l’Institut de médecine tropicale Prince-Léopold de Belgique qui le décernera un Master en médecine tropicale.
 De retour en union des Comores, il intègre le service de pneumologie du centre hospitalier national El-Maarouf à Moroni et c’est dans ce service qu’il contribuera à la création du service de lutte contre la tuberculose. 
 Déçu du manque de moyen mis à la disposition du système de santé, il démissionne de la fonction publique en 1993, pour constituer sa clinique privée « la clinique Chamian Itibar » avec une patientèle sensiblement constituée des populations les plus démunies.
-Lutte pour une médecine accessible aux plus pauvres
-Dès la constitution de sa clinique privée, Ahamad Abdullahi Itibar refuse d’aligner les tarifs de ses consultations médicales aux tarifs fixés par le Conseil de l’Ordre des médecins, estimant ceux-ci trop onéreux pour une population comorienne vivant majoritairement en dessous du seuil de la pauvreté. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ahamad_Abdullahi_Itibar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ahamad_Abdullahi_Itibar</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lutte pour une médecine accessible aux plus pauvres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès la constitution de sa clinique privée, Ahamad Abdullahi Itibar refuse d’aligner les tarifs de ses consultations médicales aux tarifs fixés par le Conseil de l’Ordre des médecins, estimant ceux-ci trop onéreux pour une population comorienne vivant majoritairement en dessous du seuil de la pauvreté. 
 Cette attitude lui vaudra plusieurs rappels à l’ordre disciplinaires avant de lui conduire à adopter une nouvelle stratégie : celle d’aligner le tarif de ses consultations au tarif réglementaire tout en accordant une remise, parfois totale, à sa patientèle la plus démunie. 
 Sa sensibilité envers les plus démunis et sa rébellion contre toute marchandisation de la médecine lui ont valu entre autres d’être estimé par sa communauté villageoise et les populations les plus démunies, et décrié par nombre de ses confrères.
-Mort
-Ahamad Abdullahi Itibar meurt dans son lit le 2 février 2022. Il est inhumé le jour même après la prière du maharibi vers 19h au cimetière Mazehi à Iconi – cimetière réservé aux plus hautes personnalités de la ville d’Iconi. Aucun membre de sa fratrie n'a pu assister à son enterrement[2],[3],[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ahamad_Abdullahi_Itibar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ahamad_Abdullahi_Itibar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahamad Abdullahi Itibar meurt dans son lit le 2 février 2022. Il est inhumé le jour même après la prière du maharibi vers 19h au cimetière Mazehi à Iconi – cimetière réservé aux plus hautes personnalités de la ville d’Iconi. Aucun membre de sa fratrie n'a pu assister à son enterrement.
 </t>
         </is>
       </c>
